--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H2">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I2">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J2">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>441.3155159720508</v>
+        <v>381.0983662447916</v>
       </c>
       <c r="R2">
-        <v>3971.839643748456</v>
+        <v>3429.885296203124</v>
       </c>
       <c r="S2">
-        <v>0.005611599697300454</v>
+        <v>0.003970774576510696</v>
       </c>
       <c r="T2">
-        <v>0.005611599697300453</v>
+        <v>0.003970774576510697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H3">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I3">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J3">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>727.0294365672653</v>
+        <v>369.5287246777305</v>
       </c>
       <c r="R3">
-        <v>6543.264929105387</v>
+        <v>3325.758522099574</v>
       </c>
       <c r="S3">
-        <v>0.0092446288845819</v>
+        <v>0.003850227120360442</v>
       </c>
       <c r="T3">
-        <v>0.009244628884581899</v>
+        <v>0.003850227120360442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H4">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I4">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J4">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>643.4758133243579</v>
+        <v>376.3008034311533</v>
       </c>
       <c r="R4">
-        <v>5791.282319919221</v>
+        <v>3386.70723088038</v>
       </c>
       <c r="S4">
-        <v>0.008182192895071055</v>
+        <v>0.003920787375995196</v>
       </c>
       <c r="T4">
-        <v>0.008182192895071053</v>
+        <v>0.003920787375995196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.460132666666667</v>
+        <v>2.266960666666667</v>
       </c>
       <c r="H5">
-        <v>13.380398</v>
+        <v>6.800882000000001</v>
       </c>
       <c r="I5">
-        <v>0.02674725343762848</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="J5">
-        <v>0.02674725343762847</v>
+        <v>0.0133060725960104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>291.6753116168179</v>
+        <v>150.1334018154496</v>
       </c>
       <c r="R5">
-        <v>2625.077804551361</v>
+        <v>1351.200616339046</v>
       </c>
       <c r="S5">
-        <v>0.003708831960675069</v>
+        <v>0.001564283523144071</v>
       </c>
       <c r="T5">
-        <v>0.003708831960675069</v>
+        <v>0.001564283523144071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>386.813492</v>
       </c>
       <c r="I6">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J6">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>12757.9759441334</v>
+        <v>21675.7164501079</v>
       </c>
       <c r="R6">
-        <v>114821.7834972006</v>
+        <v>195081.4480509711</v>
       </c>
       <c r="S6">
-        <v>0.1622255537256015</v>
+        <v>0.2258455858938478</v>
       </c>
       <c r="T6">
-        <v>0.1622255537256015</v>
+        <v>0.2258455858938478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>386.813492</v>
       </c>
       <c r="I7">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J7">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>21017.67041199942</v>
@@ -883,10 +883,10 @@
         <v>189159.0337079949</v>
       </c>
       <c r="S7">
-        <v>0.2672526767207664</v>
+        <v>0.2189892130784987</v>
       </c>
       <c r="T7">
-        <v>0.2672526767207664</v>
+        <v>0.2189892130784987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>386.813492</v>
       </c>
       <c r="I8">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J8">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>18602.2214264131</v>
+        <v>21402.84566290225</v>
       </c>
       <c r="R8">
-        <v>167419.9928377179</v>
+        <v>192625.6109661203</v>
       </c>
       <c r="S8">
-        <v>0.2365387491433381</v>
+        <v>0.2230024659004845</v>
       </c>
       <c r="T8">
-        <v>0.2365387491433382</v>
+        <v>0.2230024659004845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>386.813492</v>
       </c>
       <c r="I9">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="J9">
-        <v>0.7732354825034408</v>
+        <v>0.7568089559072322</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>8432.03212764594</v>
+        <v>8539.131457077652</v>
       </c>
       <c r="R9">
-        <v>75888.28914881345</v>
+        <v>76852.18311369888</v>
       </c>
       <c r="S9">
-        <v>0.1072185029137347</v>
+        <v>0.08897169103440124</v>
       </c>
       <c r="T9">
-        <v>0.1072185029137347</v>
+        <v>0.08897169103440124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H10">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I10">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J10">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>2997.492716500827</v>
+        <v>6265.173922216914</v>
       </c>
       <c r="R10">
-        <v>26977.43444850744</v>
+        <v>56386.56529995223</v>
       </c>
       <c r="S10">
-        <v>0.03811497355475178</v>
+        <v>0.06527866695649137</v>
       </c>
       <c r="T10">
-        <v>0.03811497355475178</v>
+        <v>0.06527866695649139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H11">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I11">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J11">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>4938.111989994238</v>
+        <v>6074.971541268401</v>
       </c>
       <c r="R11">
-        <v>44443.00790994814</v>
+        <v>54674.7438714156</v>
       </c>
       <c r="S11">
-        <v>0.06279114770585671</v>
+        <v>0.0632968931008222</v>
       </c>
       <c r="T11">
-        <v>0.06279114770585671</v>
+        <v>0.0632968931008222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H12">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I12">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J12">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>4370.601064038644</v>
+        <v>6186.303037184316</v>
       </c>
       <c r="R12">
-        <v>39335.4095763478</v>
+        <v>55676.72733465885</v>
       </c>
       <c r="S12">
-        <v>0.05557489533074467</v>
+        <v>0.0644568882955113</v>
       </c>
       <c r="T12">
-        <v>0.05557489533074467</v>
+        <v>0.0644568882955113</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.29400666666666</v>
+        <v>37.26833833333333</v>
       </c>
       <c r="H13">
-        <v>90.88202</v>
+        <v>111.805015</v>
       </c>
       <c r="I13">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="J13">
-        <v>0.1816720565310254</v>
+        <v>0.2187489278872993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>1981.110091334045</v>
+        <v>2468.16034184645</v>
       </c>
       <c r="R13">
-        <v>17829.9908220064</v>
+        <v>22213.44307661804</v>
       </c>
       <c r="S13">
-        <v>0.02519103993967226</v>
+        <v>0.02571647953447445</v>
       </c>
       <c r="T13">
-        <v>0.02519103993967226</v>
+        <v>0.02571647953447445</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H14">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I14">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J14">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>302.6862083118507</v>
+        <v>318.9467061278213</v>
       </c>
       <c r="R14">
-        <v>2724.175874806657</v>
+        <v>2870.520355150392</v>
       </c>
       <c r="S14">
-        <v>0.003848842321345837</v>
+        <v>0.003323198376402092</v>
       </c>
       <c r="T14">
-        <v>0.003848842321345837</v>
+        <v>0.003323198376402092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H15">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I15">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J15">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>498.6495500864819</v>
+        <v>309.2639066310547</v>
       </c>
       <c r="R15">
-        <v>4487.845950778337</v>
+        <v>2783.375159679492</v>
       </c>
       <c r="S15">
-        <v>0.006340637396718055</v>
+        <v>0.003222310475858023</v>
       </c>
       <c r="T15">
-        <v>0.006340637396718056</v>
+        <v>0.003222310475858023</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H16">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I16">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J16">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>441.3424115545245</v>
+        <v>314.93155677956</v>
       </c>
       <c r="R16">
-        <v>3972.081703990721</v>
+        <v>2834.38401101604</v>
       </c>
       <c r="S16">
-        <v>0.00561194169126397</v>
+        <v>0.003281363369051972</v>
       </c>
       <c r="T16">
-        <v>0.005611941691263971</v>
+        <v>0.003281363369051972</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.059082666666667</v>
+        <v>1.897252</v>
       </c>
       <c r="H17">
-        <v>9.177248000000002</v>
+        <v>5.691756</v>
       </c>
       <c r="I17">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="J17">
-        <v>0.01834520752790531</v>
+        <v>0.01113604360945798</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>200.0520963714845</v>
+        <v>125.6488041673853</v>
       </c>
       <c r="R17">
-        <v>1800.468867343361</v>
+        <v>1130.839237506468</v>
       </c>
       <c r="S17">
-        <v>0.002543786118577441</v>
+        <v>0.001309171388145891</v>
       </c>
       <c r="T17">
-        <v>0.002543786118577442</v>
+        <v>0.001309171388145891</v>
       </c>
     </row>
   </sheetData>
